--- a/data/2024/ssg/7,51_DE-7.xlsx
+++ b/data/2024/ssg/7,51_DE-7.xlsx
@@ -262,6 +262,12 @@
     <t>1.1930 -</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
@@ -301,12 +307,6 @@
     <t>5.1935 - 35.1981; 37.1982 -</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
@@ -1333,7 +1333,7 @@
     <t>1.1966 - 30.1993; damit Ersch. eingest.</t>
   </si>
   <si>
-    <t>37</t>
+    <t>56;37</t>
   </si>
   <si>
     <t>1208995-3</t>
@@ -4597,24 +4597,24 @@
         <v>32</v>
       </c>
       <c r="U8" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="V8" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="W8" t="s">
         <v>32</v>
       </c>
       <c r="X8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Y8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -4623,7 +4623,7 @@
         <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E9" t="s">
         <v>40</v>
@@ -4638,10 +4638,10 @@
         <v>32</v>
       </c>
       <c r="I9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K9" t="s">
         <v>44</v>
@@ -4665,7 +4665,7 @@
         <v>32</v>
       </c>
       <c r="R9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="S9" t="s">
         <v>32</v>
@@ -4686,12 +4686,12 @@
         <v>67</v>
       </c>
       <c r="Y9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -4700,7 +4700,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E10" t="s">
         <v>40</v>
@@ -4715,7 +4715,7 @@
         <v>32</v>
       </c>
       <c r="I10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J10" t="s">
         <v>74</v>
@@ -4739,10 +4739,10 @@
         <v>32</v>
       </c>
       <c r="Q10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="R10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="S10" t="s">
         <v>32</v>
@@ -4751,10 +4751,10 @@
         <v>32</v>
       </c>
       <c r="U10" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="V10" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="W10" t="s">
         <v>32</v>
@@ -5213,10 +5213,10 @@
         <v>32</v>
       </c>
       <c r="U16" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="V16" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="W16" t="s">
         <v>32</v>
@@ -5290,10 +5290,10 @@
         <v>32</v>
       </c>
       <c r="U17" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="V17" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="W17" t="s">
         <v>32</v>
@@ -6599,13 +6599,13 @@
         <v>32</v>
       </c>
       <c r="U34" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="V34" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="W34" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="X34" t="s">
         <v>37</v>
@@ -6984,13 +6984,13 @@
         <v>32</v>
       </c>
       <c r="U39" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="V39" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="W39" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="X39" t="s">
         <v>37</v>
@@ -7985,13 +7985,13 @@
         <v>32</v>
       </c>
       <c r="U52" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="V52" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="W52" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="X52" t="s">
         <v>37</v>
@@ -8302,7 +8302,7 @@
         <v>32</v>
       </c>
       <c r="X56" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Y56" t="s">
         <v>363</v>
@@ -8909,13 +8909,13 @@
         <v>32</v>
       </c>
       <c r="U64" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="V64" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="W64" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="X64" t="s">
         <v>37</v>
@@ -9226,7 +9226,7 @@
         <v>32</v>
       </c>
       <c r="X68" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="Y68" t="s">
         <v>439</v>
@@ -10372,10 +10372,10 @@
         <v>32</v>
       </c>
       <c r="U83" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="V83" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="W83" t="s">
         <v>32</v>
@@ -11340,7 +11340,7 @@
         <v>563</v>
       </c>
       <c r="J96" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K96" t="s">
         <v>44</v>
@@ -11373,13 +11373,13 @@
         <v>32</v>
       </c>
       <c r="U96" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="V96" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="W96" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="X96" t="s">
         <v>37</v>
@@ -11912,10 +11912,10 @@
         <v>32</v>
       </c>
       <c r="U103" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="V103" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="W103" t="s">
         <v>32</v>
@@ -12075,10 +12075,10 @@
         <v>32</v>
       </c>
       <c r="X105" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="Y105" t="s">
-        <v>388</v>
+        <v>134</v>
       </c>
     </row>
     <row r="106" spans="1:25">
@@ -13230,10 +13230,10 @@
         <v>32</v>
       </c>
       <c r="X120" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="Y120" t="s">
-        <v>32</v>
+        <v>372</v>
       </c>
     </row>
     <row r="121" spans="1:25">
@@ -21999,13 +21999,13 @@
         <v>32</v>
       </c>
       <c r="U234" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="V234" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="W234" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="X234" t="s">
         <v>37</v>
